--- a/modelos_hayonik.xlsx
+++ b/modelos_hayonik.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,12 +476,14 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>49368</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>COMPANYTECH10</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>kit caixa ativa e passiva hayonik cpa 15</t>
+          <t>inversor de onda modificada 3000w 12vdc/127v pw12-1 hayonik</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -498,26 +500,26 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>2609.65</v>
+        <v>1703.57</v>
       </c>
       <c r="G2" t="n">
-        <v>2609.65</v>
+        <v>1703.57</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>OUTROS</t>
+          <t>INVERSOR 300W</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SHOGUN220240607120509</t>
+          <t>TRP Store</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>inversor 12v/127v 5000w pico 10.000w onda modificada hayonik</t>
+          <t>inversor 12v/220v 2000w pico 4000w hayonik para geladeira</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -534,26 +536,24 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>2008.1</v>
+        <v>1300</v>
       </c>
       <c r="G3" t="n">
-        <v>2008.1</v>
+        <v>1300</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>INVERSOR 500W</t>
+          <t>INVERSOR 2000W</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>TRP Store</t>
-        </is>
+      <c r="A4" t="n">
+        <v>31034</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>inversor de voltagem 12v 127v 1500w onda</t>
+          <t>kit som ambiente 400w musical ambience 4000 preto hayonik potência de saída rms 400 w</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -567,17 +567,17 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>871.9</v>
+        <v>1120.99</v>
       </c>
       <c r="G4" t="n">
-        <v>1743.8</v>
+        <v>1120.99</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>INVERSOR 1500W</t>
+          <t>OUTROS</t>
         </is>
       </c>
     </row>
@@ -589,7 +589,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>inversor 12v/127v 1500w onda modificada hayonik</t>
+          <t>inversor de voltagem 12v 127v 1500w onda</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -603,13 +603,13 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>871.9</v>
+        <v>965</v>
       </c>
       <c r="G5" t="n">
-        <v>1743.8</v>
+        <v>965</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -620,12 +620,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CAMILAMOR20231211144944</t>
+          <t>AVILE SHOP</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>caixa de som ativa 15 hayonik cpa 15600l 600w bluetooth loja cor preto 110v/220v</t>
+          <t>inversor 12v /220v 500w pico 1000w onda modificada hayonik</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -642,26 +642,26 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>1610</v>
+        <v>439</v>
       </c>
       <c r="G6" t="n">
-        <v>1610</v>
+        <v>439</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>INVERSOR 600W</t>
+          <t>INVERSOR 500W</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>JRICALOPEZ20240810150405</t>
+          <t>GELAK_MF20240604151345</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>caixa de som ambiente hayonik msb60nc 60</t>
+          <t>caixa de som ambiente hayonik msb60n par cor preto</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -675,13 +675,13 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>279</v>
+        <v>266.94</v>
       </c>
       <c r="G7" t="n">
-        <v>1395</v>
+        <v>266.94</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -692,12 +692,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>AVILE SHOP</t>
+          <t>DE LAPLATA</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>inversor onda senoidal pura 12v p/ 127v 1000w hayonik 67214</t>
+          <t>suporte prolongador p/ caixa de som sub</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -714,26 +714,26 @@
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>1248.72</v>
+        <v>219.49</v>
       </c>
       <c r="G8" t="n">
-        <v>1248.72</v>
+        <v>219.49</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>INVERSOR 1000W</t>
+          <t>INVERSOR</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>RAR58276</t>
+          <t>@CHISTIN95</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>caixa de som ambiente hayonik msb60n par cor preto</t>
+          <t>par de suporte para sub grave subwoofer</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>240</v>
+        <v>190.6</v>
       </c>
       <c r="G9" t="n">
-        <v>960</v>
+        <v>190.6</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -764,12 +764,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>FORCEMOVIL20240806201553</t>
+          <t>GAZ!</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>caixa acústica passiva 600w cp 15600</t>
+          <t>fonte hayonik 9v 500ma para 4 pedais</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -783,29 +783,29 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10" t="n">
-        <v>890</v>
+        <v>53.55</v>
       </c>
       <c r="G10" t="n">
-        <v>890</v>
+        <v>107.1</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>INVERSOR 600W</t>
+          <t>INVERSOR 500W</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>TRP Store</t>
+          <t>COND.APOLO</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>inversor 1500w pico 3000w 24vdc/127v hayonik onda modificada</t>
+          <t>regua de energia rt810cb 8 tomadas 10a 19 hayonik</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -822,26 +822,26 @@
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>785</v>
+        <v>99.98999999999999</v>
       </c>
       <c r="G11" t="n">
-        <v>785</v>
+        <v>99.98999999999999</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>INVERSOR 1500W</t>
+          <t>INVERSOR</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>RAR5960520240917155128</t>
+          <t>AJREGO20240604162111</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>mesa office hayonik mho 1300 carvalho berlin 130cm cor bege</t>
+          <t>cabo áudio auxiliar plug p10(6,3mm) rca</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -855,29 +855,29 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12" t="n">
-        <v>598</v>
+        <v>29.9</v>
       </c>
       <c r="G12" t="n">
-        <v>598</v>
+        <v>89.7</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>INVERSOR 300W</t>
+          <t>INVERSOR</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>MIRIAM023</t>
+          <t>RILDO_MF</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>hayonik pedestal p/ caixa de som pa110 ajustável aço preto</t>
+          <t>fonte chaveada hayonik 9v 1000ma para 4</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -891,29 +891,29 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>169</v>
+        <v>50.99</v>
       </c>
       <c r="G13" t="n">
-        <v>507</v>
+        <v>50.99</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>INVERSOR</t>
+          <t>INVERSOR 1000W</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>HEITORPEREIRA28</t>
+          <t>AJREGO20240604162111</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>suporte prolongador p/ caixa de som aére</t>
+          <t>cabo microfone 5 metros balanceado xlr (f) xlr (m) hayonik</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -927,13 +927,13 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>209</v>
+        <v>49.9</v>
       </c>
       <c r="G14" t="n">
-        <v>418</v>
+        <v>49.9</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -944,12 +944,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>HEITORPEREIRA28</t>
+          <t>LARSR20190629200143</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>tripe pedestal suporte microfone girafa ajustável palco cor preto</t>
+          <t>fonte de energia 9v 4 pedais hayonik fp9</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -963,13 +963,13 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>134</v>
+        <v>44.65</v>
       </c>
       <c r="G15" t="n">
-        <v>402</v>
+        <v>44.65</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -980,12 +980,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>TRP Store</t>
+          <t>AREIS</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>inversor 12v /220v 500w pico 1000w onda modificada hayonik</t>
+          <t>cabo de guitarra violão baixo profissional p10 3m hayonik</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1002,26 +1002,26 @@
         <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>399.9</v>
+        <v>39.97</v>
       </c>
       <c r="G16" t="n">
-        <v>399.9</v>
+        <v>39.97</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>INVERSOR 500W</t>
+          <t>INVERSOR</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CAMILAMOR20231211144944</t>
+          <t>OGAZZ022018050120241017161311</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>amplificador receiver ambiente hayonik compact 200od optico cor preto potência de saída rms 20 w</t>
+          <t>fonte chaveada 9v  pedal teclado hayonik</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1038,550 +1038,12 @@
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>365</v>
+        <v>34.9</v>
       </c>
       <c r="G17" t="n">
-        <v>365</v>
+        <v>34.9</v>
       </c>
       <c r="H17" t="inlineStr">
-        <is>
-          <t>INVERSOR 2000W</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>49368</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>kit 2 pedestais hayonik caixa som + 2 ba</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>HAYONIK</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E18" t="n">
-        <v>1</v>
-      </c>
-      <c r="F18" t="n">
-        <v>338.2</v>
-      </c>
-      <c r="G18" t="n">
-        <v>338.2</v>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>HEITORPEREIRA28</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>inversor 12v para 127v de energia hayonik - 300w/600w</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>HAYONIK</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E19" t="n">
-        <v>1</v>
-      </c>
-      <c r="F19" t="n">
-        <v>327.64</v>
-      </c>
-      <c r="G19" t="n">
-        <v>327.64</v>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>INVERSOR 300W</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>DE LAPLATA</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>suporte prolongador p/ caixa de som sub</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>HAYONIK</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E20" t="n">
-        <v>1</v>
-      </c>
-      <c r="F20" t="n">
-        <v>219.49</v>
-      </c>
-      <c r="G20" t="n">
-        <v>219.49</v>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>INVERSOR</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>GAZ!</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>fonte hayonik 9v 500ma para 4 pedais</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>HAYONIK</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E21" t="n">
-        <v>4</v>
-      </c>
-      <c r="F21" t="n">
-        <v>53.55</v>
-      </c>
-      <c r="G21" t="n">
-        <v>214.2</v>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>INVERSOR 500W</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>MDMOSQUERA2002</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>direct box hayonik passivo db100 preto c</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>HAYONIK</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E22" t="n">
-        <v>1</v>
-      </c>
-      <c r="F22" t="n">
-        <v>153.9</v>
-      </c>
-      <c r="G22" t="n">
-        <v>153.9</v>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>INVERSOR</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>OGAZZ022018050120241017161311</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>fonte chaveada 9v  pedal teclado hayonik</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>HAYONIK</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E23" t="n">
-        <v>4</v>
-      </c>
-      <c r="F23" t="n">
-        <v>34.9</v>
-      </c>
-      <c r="G23" t="n">
-        <v>139.6</v>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>INVERSOR</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>BEAMILAN20240914151300</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>cabo áudio hayonik player 2 p10 mono x 1 p2 estéreo 2 metros</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>HAYONIK</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E24" t="n">
-        <v>4</v>
-      </c>
-      <c r="F24" t="n">
-        <v>31.04</v>
-      </c>
-      <c r="G24" t="n">
-        <v>124.16</v>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>INVERSOR</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>DE LAPLATA</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>fonte de energia 9v 4 saídas p/ pedal de</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>HAYONIK</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E25" t="n">
-        <v>2</v>
-      </c>
-      <c r="F25" t="n">
-        <v>59.85</v>
-      </c>
-      <c r="G25" t="n">
-        <v>119.7</v>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>INVERSOR</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>HEITORPEREIRA28</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>suporte para som profissional s90 preto</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>HAYONIK</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E26" t="n">
-        <v>1</v>
-      </c>
-      <c r="F26" t="n">
-        <v>118</v>
-      </c>
-      <c r="G26" t="n">
-        <v>118</v>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>INVERSOR</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>UNIVER413820190628103403</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>fonte chaveada para 4 pedais hayonik 9vd</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>HAYONIK</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E27" t="n">
-        <v>2</v>
-      </c>
-      <c r="F27" t="n">
-        <v>56.99</v>
-      </c>
-      <c r="G27" t="n">
-        <v>113.98</v>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>INVERSOR</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>ALMIR.NEVES20240808012146</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>fonte teclado psr-1000, psr-1100, psr-15</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>HAYONIK</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E28" t="n">
-        <v>1</v>
-      </c>
-      <c r="F28" t="n">
-        <v>99</v>
-      </c>
-      <c r="G28" t="n">
-        <v>99</v>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>INVERSOR 1000W</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>OGAZZ022018050120241017161311</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>fonte chaveada para 4 pedais 9v dc 1a p4</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>HAYONIK</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E29" t="n">
-        <v>2</v>
-      </c>
-      <c r="F29" t="n">
-        <v>44.9</v>
-      </c>
-      <c r="G29" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>INVERSOR</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>SPRINKLING20240919161135</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>estante de partitura hayonik sp100 preto suporte resistente</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>HAYONIK</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E30" t="n">
-        <v>1</v>
-      </c>
-      <c r="F30" t="n">
-        <v>70.90000000000001</v>
-      </c>
-      <c r="G30" t="n">
-        <v>70.90000000000001</v>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>INVERSOR</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>BASTHINHO</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>suporte chão guitarra violão baixo hayonik si 210 dobrável cor preto</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>HAYONIK</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E31" t="n">
-        <v>1</v>
-      </c>
-      <c r="F31" t="n">
-        <v>62.03</v>
-      </c>
-      <c r="G31" t="n">
-        <v>62.03</v>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>INVERSOR</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>AJREGO20240604162111</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>suporte chão violão guitarra baixo hayonik si220 trava braço</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>HAYONIK</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E32" t="n">
-        <v>1</v>
-      </c>
-      <c r="F32" t="n">
-        <v>59.7</v>
-      </c>
-      <c r="G32" t="n">
-        <v>59.7</v>
-      </c>
-      <c r="H32" t="inlineStr">
         <is>
           <t>INVERSOR</t>
         </is>
